--- a/문제 업로드 양식.xlsx
+++ b/문제 업로드 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sooyoung/startup/ox퀴즈/problem-uploader/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B45160-28FD-054F-9BC9-2E83B9B0CB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A7AEB-D358-AF46-9B87-E906CA89D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2960" windowWidth="33600" windowHeight="20500" xr2:uid="{071C7668-AA9A-994F-8410-EB13E44683DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{071C7668-AA9A-994F-8410-EB13E44683DB}"/>
   </bookViews>
   <sheets>
     <sheet name="문제 업로드 예시" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>발행연도</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>모의평가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진파일명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -533,6 +529,38 @@
       </rPr>
       <t xml:space="preserve">(한글: ko, 숫자: no, 영어: en) </t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체이미지파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지1 이미지파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지2 이미지파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지3 이미지파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지4 이미지파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지5 이미지파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,8 +657,17 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,8 +679,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -680,6 +723,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -689,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,12 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,6 +775,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C734D8-03C2-D245-BD97-FC29BC97DAD0}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1054,105 +1135,125 @@
     <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1"/>
     <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="1"/>
-    <col min="17" max="17" width="17.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1"/>
-    <col min="20" max="20" width="17.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1"/>
-    <col min="23" max="23" width="17.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1"/>
+    <col min="18" max="18" width="17.42578125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1"/>
+    <col min="22" max="22" width="17.42578125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" style="4" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" style="1"/>
-    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="10.7109375" style="1"/>
+    <col min="26" max="26" width="17.42578125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="1"/>
+    <col min="30" max="30" width="17.42578125" style="12" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" style="15" customWidth="1"/>
+    <col min="32" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" ht="38" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:31" s="6" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>39</v>
+      <c r="AE1" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="23" customHeight="1">
+    <row r="2" spans="1:31" ht="19" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1166,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -1175,46 +1276,51 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1">
         <v>15.2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:31" ht="19" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1225,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -1237,46 +1343,51 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1">
         <v>72.400000000000006</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="V3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:31" ht="19" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1287,56 +1398,59 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1">
         <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="V4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/문제 업로드 양식.xlsx
+++ b/문제 업로드 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sooyoung/startup/ox퀴즈/problem-uploader/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A7AEB-D358-AF46-9B87-E906CA89D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E72B1C9-8971-914D-B466-CC635CA51E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{071C7668-AA9A-994F-8410-EB13E44683DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>발행연도</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -561,6 +561,30 @@
   </si>
   <si>
     <t>그림5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지1 자료설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지2 자료설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지3 자료설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지4 자료설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선지5 자료설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료설명…</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1116,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C734D8-03C2-D245-BD97-FC29BC97DAD0}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1138,27 +1162,27 @@
     <col min="12" max="12" width="17.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="1"/>
     <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="1"/>
-    <col min="18" max="18" width="17.42578125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1"/>
-    <col min="22" max="22" width="17.42578125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="1"/>
-    <col min="26" max="26" width="17.42578125" style="12" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="1"/>
-    <col min="30" max="30" width="17.42578125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" style="15" customWidth="1"/>
-    <col min="32" max="16384" width="10.7109375" style="1"/>
+    <col min="15" max="16" width="17.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1"/>
+    <col min="19" max="19" width="17.42578125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="17.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="1"/>
+    <col min="24" max="24" width="17.42578125" style="12" customWidth="1"/>
+    <col min="25" max="26" width="17.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1"/>
+    <col min="29" max="29" width="17.42578125" style="12" customWidth="1"/>
+    <col min="30" max="31" width="17.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" style="4" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="1"/>
+    <col min="34" max="35" width="17.42578125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" style="15" customWidth="1"/>
+    <col min="37" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -1204,56 +1228,71 @@
       <c r="O1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AI1" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="AJ1" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="19" customHeight="1">
+    <row r="2" spans="1:36" ht="19" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1299,28 +1338,33 @@
       <c r="O2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>0</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:31" ht="19" customHeight="1">
+    <row r="3" spans="1:36" ht="19" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1364,30 +1408,33 @@
         <v>42</v>
       </c>
       <c r="O3" s="10"/>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="13"/>
+      <c r="V3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:31" ht="19" customHeight="1">
+    <row r="4" spans="1:36" ht="19" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1431,26 +1478,29 @@
         <v>43</v>
       </c>
       <c r="O4" s="10"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/문제 업로드 양식.xlsx
+++ b/문제 업로드 양식.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sooyoung/startup/ox퀴즈/problem-uploader/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E72B1C9-8971-914D-B466-CC635CA51E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37224D-6095-5448-B588-04B9D832574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{071C7668-AA9A-994F-8410-EB13E44683DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>발행연도</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -88,24 +88,6 @@
   </si>
   <si>
     <t>그림3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">소단원
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(숫자만 표기)</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -585,6 +567,96 @@
   </si>
   <si>
     <t>자료설명…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선지 1 소단원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(숫자만 표기)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선지 2 소단원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(숫자만 표기)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선지 3 소단원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(숫자만 표기)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선지 4 소단원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(숫자만 표기)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선지 5 소단원
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(숫자만 표기)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,11 +891,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1140,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C734D8-03C2-D245-BD97-FC29BC97DAD0}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1154,37 +1229,41 @@
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1"/>
-    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16" width="17.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1"/>
+    <col min="13" max="13" width="17.42578125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="17.28515625" style="4" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="1"/>
     <col min="19" max="19" width="17.42578125" style="12" customWidth="1"/>
     <col min="20" max="21" width="17.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="1"/>
-    <col min="24" max="24" width="17.42578125" style="12" customWidth="1"/>
-    <col min="25" max="26" width="17.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1"/>
-    <col min="29" max="29" width="17.42578125" style="12" customWidth="1"/>
-    <col min="30" max="31" width="17.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.28515625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="1"/>
-    <col min="34" max="35" width="17.42578125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" style="15" customWidth="1"/>
-    <col min="37" max="16384" width="10.7109375" style="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1"/>
+    <col min="25" max="25" width="17.42578125" style="12" customWidth="1"/>
+    <col min="26" max="27" width="17.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1"/>
+    <col min="31" max="31" width="17.42578125" style="12" customWidth="1"/>
+    <col min="32" max="33" width="17.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" style="4" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" style="1"/>
+    <col min="37" max="38" width="17.42578125" style="12" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" style="15" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="14" customWidth="1"/>
+    <col min="41" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:40" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1199,100 +1278,112 @@
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AL1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AM1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>59</v>
+      <c r="AN1" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="19" customHeight="1">
+    <row r="2" spans="1:40" ht="19" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1311,60 +1402,72 @@
       <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="V2" s="1">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1">
         <v>0</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="10"/>
+      <c r="Y2" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" ht="19" customHeight="1">
+    <row r="3" spans="1:40" ht="19" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1383,58 +1486,70 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
       <c r="Q3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U3" s="13"/>
-      <c r="V3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="V3" s="1">
+        <v>6</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="1">
         <v>0</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" ht="19" customHeight="1">
+    <row r="4" spans="1:40" ht="19" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1453,59 +1568,71 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
-        <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
       <c r="Q4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="1">
         <v>0</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{E3A25F5C-6DA3-D144-9FD0-E7142B72F47C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{E3A25F5C-6DA3-D144-9FD0-E7142B72F47C}">
       <formula1>"ko, no, en"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문제 업로드 양식.xlsx
+++ b/문제 업로드 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sooyoung/startup/ox퀴즈/problem-uploader/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37224D-6095-5448-B588-04B9D832574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186248E-FCD0-4341-A2E2-7A223A6DEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{071C7668-AA9A-994F-8410-EB13E44683DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>발행연도</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -657,6 +657,14 @@
       </rPr>
       <t>(숫자만 표기)</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 해설</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 공통 해설입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1215,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C734D8-03C2-D245-BD97-FC29BC97DAD0}">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1229,39 +1237,39 @@
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1"/>
-    <col min="13" max="13" width="17.42578125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1"/>
-    <col min="19" max="19" width="17.42578125" style="12" customWidth="1"/>
-    <col min="20" max="21" width="17.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1"/>
-    <col min="25" max="25" width="17.42578125" style="12" customWidth="1"/>
-    <col min="26" max="27" width="17.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1"/>
-    <col min="31" max="31" width="17.42578125" style="12" customWidth="1"/>
-    <col min="32" max="33" width="17.42578125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" style="4" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" style="1"/>
-    <col min="37" max="38" width="17.42578125" style="12" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" style="15" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" style="14" customWidth="1"/>
-    <col min="41" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1"/>
+    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="17.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="1"/>
+    <col min="20" max="20" width="17.42578125" style="12" customWidth="1"/>
+    <col min="21" max="22" width="17.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="1"/>
+    <col min="26" max="26" width="17.42578125" style="12" customWidth="1"/>
+    <col min="27" max="28" width="17.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1"/>
+    <col min="32" max="32" width="17.42578125" style="12" customWidth="1"/>
+    <col min="33" max="34" width="17.42578125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" style="4" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="1"/>
+    <col min="38" max="39" width="17.42578125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="16.140625" style="15" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" style="14" customWidth="1"/>
+    <col min="42" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="6" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:41" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -1283,107 +1291,110 @@
       <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="19" customHeight="1">
+    <row r="2" spans="1:41" ht="19" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1405,69 +1416,72 @@
       <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1">
         <v>15.2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>5</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="1">
+      <c r="V2" s="13"/>
+      <c r="W2" s="1">
         <v>5</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
-      <c r="AB2" s="1">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="1">
         <v>5</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>5</v>
       </c>
-      <c r="AN2" s="14">
+      <c r="AO2" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="19" customHeight="1">
+    <row r="3" spans="1:41" ht="19" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1489,67 +1503,70 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1">
         <v>72.400000000000006</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="1">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="1">
         <v>6</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="1">
+      <c r="V3" s="13"/>
+      <c r="W3" s="1">
         <v>6</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>0</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
-      <c r="AB3" s="1">
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="1">
         <v>6</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>6</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AO3" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="19" customHeight="1">
+    <row r="4" spans="1:41" ht="19" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1571,68 +1588,71 @@
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1">
         <v>48</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="1">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="1">
         <v>4</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="1">
+      <c r="V4" s="13"/>
+      <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>0</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
-      <c r="AB4" s="1">
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="1">
         <v>4</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>4</v>
       </c>
-      <c r="AN4" s="14">
+      <c r="AO4" s="14">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{E3A25F5C-6DA3-D144-9FD0-E7142B72F47C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{E3A25F5C-6DA3-D144-9FD0-E7142B72F47C}">
       <formula1>"ko, no, en"</formula1>
     </dataValidation>
   </dataValidations>

--- a/문제 업로드 양식.xlsx
+++ b/문제 업로드 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sooyoung/startup/ox퀴즈/problem-uploader/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186248E-FCD0-4341-A2E2-7A223A6DEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903C343-5BDD-0E44-9C81-3AEB15D5423D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{071C7668-AA9A-994F-8410-EB13E44683DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>발행연도</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>문제 공통 해설입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1223,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C734D8-03C2-D245-BD97-FC29BC97DAD0}">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1237,39 +1241,40 @@
     <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="32.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1"/>
-    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1"/>
-    <col min="20" max="20" width="17.42578125" style="12" customWidth="1"/>
-    <col min="21" max="22" width="17.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="1"/>
-    <col min="26" max="26" width="17.42578125" style="12" customWidth="1"/>
-    <col min="27" max="28" width="17.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="1"/>
-    <col min="32" max="32" width="17.42578125" style="12" customWidth="1"/>
-    <col min="33" max="34" width="17.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="17.28515625" style="4" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" style="1"/>
-    <col min="38" max="39" width="17.42578125" style="12" customWidth="1"/>
-    <col min="40" max="40" width="16.140625" style="15" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="14" customWidth="1"/>
-    <col min="42" max="16384" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1"/>
+    <col min="15" max="15" width="17.42578125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1"/>
+    <col min="21" max="21" width="17.42578125" style="12" customWidth="1"/>
+    <col min="22" max="23" width="17.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="17.42578125" style="12" customWidth="1"/>
+    <col min="28" max="29" width="17.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="1"/>
+    <col min="33" max="33" width="17.42578125" style="12" customWidth="1"/>
+    <col min="34" max="35" width="17.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" style="4" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" style="1"/>
+    <col min="39" max="40" width="17.42578125" style="12" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" style="15" customWidth="1"/>
+    <col min="42" max="42" width="11.85546875" style="14" customWidth="1"/>
+    <col min="43" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:42" s="6" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -1288,113 +1293,116 @@
       <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="19" customHeight="1">
+    <row r="2" spans="1:42" ht="19" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1413,75 +1421,78 @@
       <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>15.2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>5</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="1">
+      <c r="W2" s="13"/>
+      <c r="X2" s="1">
         <v>5</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>0</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="1">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>5</v>
       </c>
-      <c r="AO2" s="14">
+      <c r="AP2" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="19" customHeight="1">
+    <row r="3" spans="1:42" ht="19" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1500,73 +1511,76 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>72.400000000000006</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="1">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="1">
         <v>6</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="1">
+      <c r="W3" s="13"/>
+      <c r="X3" s="1">
         <v>6</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>0</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
-      <c r="AC3" s="1">
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="1">
         <v>6</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>6</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AP3" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="19" customHeight="1">
+    <row r="4" spans="1:42" ht="19" customHeight="1">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1585,74 +1599,77 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>48</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="1">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="1">
         <v>4</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="13"/>
       <c r="V4" s="13"/>
-      <c r="W4" s="1">
+      <c r="W4" s="13"/>
+      <c r="X4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>0</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="1">
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>4</v>
       </c>
-      <c r="AO4" s="14">
+      <c r="AP4" s="14">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{E3A25F5C-6DA3-D144-9FD0-E7142B72F47C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{E3A25F5C-6DA3-D144-9FD0-E7142B72F47C}">
       <formula1>"ko, no, en"</formula1>
     </dataValidation>
   </dataValidations>
